--- a/biology/Botanique/Chlamydomyxaceae/Chlamydomyxaceae.xlsx
+++ b/biology/Botanique/Chlamydomyxaceae/Chlamydomyxaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlamydomyxaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Synchromophyceae et de l’ordre des Chlamydomyxales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Chlamydomyxa, composé du préfixe chlamy- « cape, manteau » (du grec χλαμυ / chlamy, « qui porte une chlamyde », un manteau porté en Grèce antique), et du suffixe myxa, du grec μυξα / myxa « mucosité », littéralement « manteau muqueux », en référence à l'enveloppe de cellulose composée de plusieurs lames, qui entoure le corps de l'organisme, comme un manteau, et des fibres hyalines qui en émergent[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Chlamydomyxa, composé du préfixe chlamy- « cape, manteau » (du grec χλαμυ / chlamy, « qui porte une chlamyde », un manteau porté en Grèce antique), et du suffixe myxa, du grec μυξα / myxa « mucosité », littéralement « manteau muqueux », en référence à l'enveloppe de cellulose composée de plusieurs lames, qui entoure le corps de l'organisme, comme un manteau, et des fibres hyalines qui en émergent.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La substance corporelle de l'espèce type (holotype) Chlamydomyxa labyrinthuloides est enfermée dans une enveloppe de cellulose multi-laminée. Le contenu protoplasmique porteur de granules non nucléés émerge parfois, dégageant des ramifications effilées qui émettent de nombreuses fibres ramifiées hyalines, parfois coalescentes, formant une sorte de  « labyrinthe » plus ou moins complexe, le long duquel partent, depuis la masse centrale, de nombreux petits corpuscules globuleux flexibles et fusiformes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La substance corporelle de l'espèce type (holotype) Chlamydomyxa labyrinthuloides est enfermée dans une enveloppe de cellulose multi-laminée. Le contenu protoplasmique porteur de granules non nucléés émerge parfois, dégageant des ramifications effilées qui émettent de nombreuses fibres ramifiées hyalines, parfois coalescentes, formant une sorte de  « labyrinthe » plus ou moins complexe, le long duquel partent, depuis la masse centrale, de nombreux petits corpuscules globuleux flexibles et fusiformes.
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (20 mars 2022)[1] et World Register of Marine Species                               (20 mars 2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (20 mars 2022) et World Register of Marine Species                               (20 mars 2022) :
 Chlamydomyxa W.Archer, 1875
 Chlamydomyxa congolensis Kufferath
-Chlamydomyxa labyrinthuloides W.Archer, 1875 holotype [2]
+Chlamydomyxa labyrinthuloides W.Archer, 1875 holotype 
 Chlamydomyxa laeteviridis Skvortsov
 Chlamydomyxa montana Lancaster
 			Chlamydomyxa labyrinthuloidesCertains sont enkystés dans des feuilles de Sphaignes
@@ -611,6 +629,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
